--- a/docs/sample/tables/sample_simple.xlsx
+++ b/docs/sample/tables/sample_simple.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E1171C-3E2B-4C49-9DEE-CAE87E920A90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B6BC5D-2C6E-4F4F-BC5E-9A03E9C648D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="390" windowWidth="12750" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Define" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -21,36 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>intVal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,30 +55,6 @@
   </si>
   <si>
     <t>일부 빈칸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부동소수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,7 +96,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -163,26 +114,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -191,30 +122,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -254,17 +161,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -551,35 +454,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>11</v>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="4"/>
       <c r="C2" s="1">
         <v>10</v>
       </c>
@@ -587,7 +490,7 @@
         <v>11.1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>1</v>
@@ -604,7 +507,7 @@
         <v>22.2</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -614,16 +517,16 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>13</v>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>14</v>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C5">
         <v>40</v>
@@ -637,90 +540,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="10.875" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/docs/sample/tables/sample_simple.xlsx
+++ b/docs/sample/tables/sample_simple.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B6BC5D-2C6E-4F4F-BC5E-9A03E9C648D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AB1734-29CC-4C8F-87DE-1889A69E303D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="390" windowWidth="12750" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14790" yWindow="510" windowWidth="12750" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,17 @@
   </si>
   <si>
     <t>(comment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumVal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08760434-48FB-43E3-A688-AD17FAC4CA94}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -458,7 +469,7 @@
     <col min="3" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,8 +488,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -495,8 +509,11 @@
       <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -512,8 +529,11 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -521,7 +541,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
